--- a/Feature set-functional groups.xlsx
+++ b/Feature set-functional groups.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360MoveData\Users\zhuyi\Desktop\2cl-nature\Nature-1\dataset-new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360MoveData\Users\zhuyi\Desktop\2cl-nature\Nature-1\sub-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0190DE5E-6C5C-4032-ACC6-CE1CA4A68F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC312D3-29B3-4D6D-AE9A-11C98BBC7874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="推广" sheetId="16" r:id="rId1"/>
+    <sheet name="All features" sheetId="16" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -711,7 +711,7 @@
   <dimension ref="A1:BE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
